--- a/data/trans_dic/P25_8-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,26</t>
+          <t>6,58; 18,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,48</t>
+          <t>4,52; 12,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,32</t>
+          <t>8,05; 16,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 22,69</t>
+          <t>2,94; 13,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 33,7</t>
+          <t>12,99; 26,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,37</t>
+          <t>13,02; 21,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,19</t>
+          <t>15,73; 23,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 15,51</t>
+          <t>16,48; 29,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,36; 25,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,79; 21,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 20,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 15,88</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 18,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 22,14</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,38</t>
+          <t>12,12; 20,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 18,04</t>
+          <t>10,75; 18,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 23,31</t>
+          <t>14,73; 22,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 20,84</t>
+          <t>14,77; 23,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 27,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 21,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,89; 30,0</t>
+          <t>21,34; 31,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,4</t>
+          <t>17,47; 24,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 22,16</t>
+          <t>22,36; 30,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,87</t>
+          <t>20,8; 29,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,71; 25,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 24,62</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 20,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 25,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 25,21</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,88</t>
+          <t>17,68; 29,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,6</t>
+          <t>14,49; 22,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 23,42</t>
+          <t>15,52; 22,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 24,08</t>
+          <t>15,86; 26,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 26,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 27,66</t>
+          <t>19,84; 29,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 25,69</t>
+          <t>14,79; 21,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 25,21</t>
+          <t>20,4; 27,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 19,2</t>
+          <t>21,66; 31,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,35; 28,07</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 20,64</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 24,31</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19,7; 26,83</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 19,11</t>
+          <t>11,9; 18,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,74; 15,84</t>
+          <t>8,51; 15,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 19,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,64</t>
+          <t>18,48; 28,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 24,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 19,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 27,66</t>
+          <t>15,0; 22,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,28; 24,42</t>
+          <t>9,95; 17,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 20,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 17,17</t>
+          <t>21,31; 31,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 23,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 21,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 18,95</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 15,35</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 28,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,37; 18,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 15,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 19,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,45; 21,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 23,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 19,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 26,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 27,89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 20,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 17,18</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 22,22</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 24,05</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39483</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39604</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>84104</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31234</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80333</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>108985</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>176280</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>139545</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>119815</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>148589</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>260384</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>170778</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21798; 61746</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23991; 64821</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58663; 117746</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13164; 61210</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54456; 110514</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83146; 138379</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141081; 212479</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101591; 183602</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>86187; 155115</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>118100; 185632</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>213118; 306235</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>126695; 235548</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145498</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>169097</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>292101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>201209</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>257581</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>257370</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>398456</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>271165</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>403079</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>426466</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>690557</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>472374</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112384; 191253</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>129799; 218078</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>237078; 363780</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>157727; 252910</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>212276; 313730</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>214780; 306141</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>337223; 455844</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>225362; 322266</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>342180; 473187</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>367508; 498239</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>612494; 789199</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>407864; 542241</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>166885</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>150569</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>207318</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>165990</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>187444</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>169177</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>276965</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>232252</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>354329</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>319746</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>484282</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>398242</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>126507; 213128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>122545; 187477</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>169292; 248588</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>131437; 216283</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>152179; 225572</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>139326; 203371</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>237289; 321811</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>194298; 278283</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>301735; 416169</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>275345; 368905</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>426510; 547965</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>340007; 463033</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>219085</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103283</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>254760</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>251623</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>100701</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>256920</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>470707</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>203984</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>511680</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>173482; 267934</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73013; 135785</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>203064; 314089</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>209795; 310655</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>75558; 132027</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>209838; 306948</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>404586; 541132</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>165920; 248208</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>444588; 586932</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>604.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>570950</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>462553</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>583522</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>653192</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>776981</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>636233</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>851701</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>899882</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1347931</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1098786</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1435223</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1553074</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>493086; 648620</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>400414; 541962</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>505036; 671926</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>566217; 736569</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>696928; 853988</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>568114; 706239</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>776164; 931592</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>809206; 998981</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1230805; 1468502</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1005845; 1204093</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1323782; 1554540</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1425663; 1689288</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
